--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Model File</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>1500-2800/50</t>
+  </si>
+  <si>
+    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized + PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,6 +194,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4:Q4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="5" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
@@ -872,6 +881,55 @@
       </c>
       <c r="Q12" s="1">
         <v>0.74538599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>2800</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0.94700460829493105</v>
+      </c>
+      <c r="K13">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="L13">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="M13">
+        <v>0.89424663014522598</v>
+      </c>
+      <c r="N13">
+        <v>0.9375</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="Q13">
+        <v>0.80122284163523605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Model File</t>
   </si>
@@ -492,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,6 +899,18 @@
       <c r="E13">
         <v>10</v>
       </c>
+      <c r="F13">
+        <v>0.94930875599999998</v>
+      </c>
+      <c r="G13">
+        <v>0.94470046100000005</v>
+      </c>
+      <c r="H13">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="I13">
+        <v>0.89865568100000004</v>
+      </c>
       <c r="J13">
         <v>0.94700460829493105</v>
       </c>
@@ -922,14 +934,6 @@
       </c>
       <c r="Q13">
         <v>0.80122284163523605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Model File</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized + PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized</t>
+  </si>
+  <si>
+    <t>Ahmed et al.</t>
+  </si>
+  <si>
+    <t>Yang et al.</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -492,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -934,6 +943,97 @@
       </c>
       <c r="Q13">
         <v>0.80122284163523605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>94.9</v>
+      </c>
+      <c r="G16">
+        <v>97.2</v>
+      </c>
+      <c r="H16">
+        <v>92.6</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>94.9</v>
+      </c>
+      <c r="K16">
+        <v>97.2</v>
+      </c>
+      <c r="L16">
+        <v>92.6</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>94.8</v>
+      </c>
+      <c r="O16">
+        <v>94</v>
+      </c>
+      <c r="P16">
+        <v>93.9</v>
+      </c>
+      <c r="Q16">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>88.5</v>
+      </c>
+      <c r="G17">
+        <v>88.9</v>
+      </c>
+      <c r="H17">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>0.76</v>
+      </c>
+      <c r="J17">
+        <v>90.1</v>
+      </c>
+      <c r="K17">
+        <v>90.8</v>
+      </c>
+      <c r="L17">
+        <v>89.4</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <v>93.8</v>
+      </c>
+      <c r="O17">
+        <v>92.3</v>
+      </c>
+      <c r="P17">
+        <v>94.1</v>
+      </c>
+      <c r="Q17">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Model File</t>
   </si>
@@ -60,54 +60,24 @@
     <t>SMOTE Type</t>
   </si>
   <si>
-    <t>217 + 217</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
-    <t>SVM_Classification_TenFoldCV_NoSMOTE</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>SVM_Classification_TenFoldCV_SMOTE217_2</t>
-  </si>
-  <si>
-    <t>SVM_Classification_TenFoldCV_SMOTE217</t>
-  </si>
-  <si>
     <t>217+217</t>
   </si>
   <si>
-    <t>SVM_Classification_TenFoldCV_SMOTE174</t>
-  </si>
-  <si>
     <t>174+174</t>
   </si>
   <si>
     <t>SearchType</t>
   </si>
   <si>
-    <t>2000-3000/10</t>
-  </si>
-  <si>
     <t>2000-2500/10</t>
   </si>
   <si>
-    <t>2000-3000/50</t>
-  </si>
-  <si>
-    <t>SVM_Classification_TenFoldCV_SMOTE174_2</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>SVM_Classification_JackKnife_SMOTE217</t>
-  </si>
-  <si>
     <t>PerfSearch_Classification_IT_SMOTE217</t>
   </si>
   <si>
@@ -117,24 +87,12 @@
     <t>PerfSearch_CLassification_JackKnife_SMOTE217_Partial</t>
   </si>
   <si>
-    <t>174+147</t>
-  </si>
-  <si>
     <t>PerfSearch_Classification_IT_SMOTE174</t>
   </si>
   <si>
-    <t>Khaled_SVM_Classification_TenFoldCV_NoSMOTE_GoodITPerf</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>1500-2800/50</t>
   </si>
   <si>
-    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized + PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized</t>
-  </si>
-  <si>
     <t>Ahmed et al.</t>
   </si>
   <si>
@@ -142,6 +100,10 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized + PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized +
+PerfSearch_Classification_JackKnifeCV_WEKA_SMOTE217_NormFeaturized</t>
   </si>
 </sst>
 </file>
@@ -191,19 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -501,538 +457,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
     <col min="2" max="5" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>2841</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1">
-        <v>95.391710000000003</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="N2" s="1">
-        <v>0.765625</v>
+        <v>0.921875</v>
       </c>
       <c r="O2" s="1">
-        <v>0.74509800000000004</v>
+        <v>0.94117649999999997</v>
       </c>
       <c r="P2" s="1">
         <v>0.84615379999999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.49135309999999999</v>
+        <v>0.76623980000000003</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2170</v>
-      </c>
-      <c r="J3" s="1">
-        <v>82.565790000000007</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.98039220000000005</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.76923079999999999</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.79940219999999995</v>
+        <v>2010</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="J3">
+        <v>94.700460000000007</v>
+      </c>
+      <c r="K3">
+        <v>97.695849999999993</v>
+      </c>
+      <c r="L3">
+        <v>91.705070000000006</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2010</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.95161289999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.97235020000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.93087560000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5">
-        <v>2230</v>
-      </c>
-      <c r="J5" s="1">
-        <v>95.161289999999994</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="N5" s="1">
-        <v>0.859375</v>
+        <v>0.921875</v>
       </c>
       <c r="O5" s="1">
-        <v>0.86274510000000004</v>
+        <v>0.98039220000000005</v>
       </c>
       <c r="P5" s="1">
-        <v>0.84615379999999996</v>
+        <v>0.69230769999999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.63434559999999995</v>
+        <v>0.74538599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>29</v>
+    <row r="6" spans="1:17" ht="49.5" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0.94930879999999995</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.76470590000000005</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.69230769999999997</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.39159939999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>2050</v>
-      </c>
-      <c r="J7" s="1">
-        <v>93.678160000000005</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.80392160000000001</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.84615379999999996</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.55702750000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>2050</v>
-      </c>
-      <c r="J8">
-        <v>94.540229885057499</v>
-      </c>
-      <c r="N8">
-        <v>0.765625</v>
-      </c>
-      <c r="O8">
-        <v>0.80392160000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.61538459999999995</v>
-      </c>
-      <c r="Q8">
-        <v>0.37520870000000001</v>
+        <v>0.94930875599999998</v>
+      </c>
+      <c r="G6">
+        <v>0.94470046100000005</v>
+      </c>
+      <c r="H6">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="I6">
+        <v>0.89865568100000004</v>
+      </c>
+      <c r="J6">
+        <v>0.94700460829493105</v>
+      </c>
+      <c r="K6">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="L6">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="M6">
+        <v>0.89424663014522598</v>
+      </c>
+      <c r="N6">
+        <v>0.9375</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="Q6">
+        <v>0.80122284163523605</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="N9" s="1">
-        <v>0.921875</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.84615379999999996</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.76623980000000003</v>
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>94.9</v>
+      </c>
+      <c r="G9">
+        <v>97.2</v>
+      </c>
+      <c r="H9">
+        <v>92.6</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>94.9</v>
+      </c>
+      <c r="K9">
+        <v>97.2</v>
+      </c>
+      <c r="L9">
+        <v>92.6</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>94.8</v>
+      </c>
+      <c r="O9">
+        <v>94</v>
+      </c>
+      <c r="P9">
+        <v>93.9</v>
+      </c>
+      <c r="Q9">
+        <v>0.86</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>2010</v>
-      </c>
-      <c r="E10">
-        <v>0.03</v>
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>88.5</v>
+      </c>
+      <c r="G10">
+        <v>88.9</v>
+      </c>
+      <c r="H10">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>0.76</v>
       </c>
       <c r="J10">
-        <v>94.700460000000007</v>
+        <v>90.1</v>
       </c>
       <c r="K10">
-        <v>97.695849999999993</v>
+        <v>90.8</v>
       </c>
       <c r="L10">
-        <v>91.705070000000006</v>
+        <v>89.4</v>
       </c>
       <c r="M10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>2010</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.95161289999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.97235020000000005</v>
-      </c>
-      <c r="H11">
-        <v>0.93087560000000003</v>
-      </c>
-      <c r="I11">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="N12" s="1">
-        <v>0.921875</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.98039220000000005</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.69230769999999997</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.74538599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30">
-      <c r="A13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>2800</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>0.94930875599999998</v>
-      </c>
-      <c r="G13">
-        <v>0.94470046100000005</v>
-      </c>
-      <c r="H13">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="I13">
-        <v>0.89865568100000004</v>
-      </c>
-      <c r="J13">
-        <v>0.94700460829493105</v>
-      </c>
-      <c r="K13">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="L13">
-        <v>0.95852534562212</v>
-      </c>
-      <c r="M13">
-        <v>0.89424663014522598</v>
-      </c>
-      <c r="N13">
-        <v>0.9375</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="Q13">
-        <v>0.80122284163523605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>94.9</v>
-      </c>
-      <c r="G16">
-        <v>97.2</v>
-      </c>
-      <c r="H16">
-        <v>92.6</v>
-      </c>
-      <c r="I16">
-        <v>0.9</v>
-      </c>
-      <c r="J16">
-        <v>94.9</v>
-      </c>
-      <c r="K16">
-        <v>97.2</v>
-      </c>
-      <c r="L16">
-        <v>92.6</v>
-      </c>
-      <c r="M16">
-        <v>0.9</v>
-      </c>
-      <c r="N16">
-        <v>94.8</v>
-      </c>
-      <c r="O16">
-        <v>94</v>
-      </c>
-      <c r="P16">
-        <v>93.9</v>
-      </c>
-      <c r="Q16">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>88.5</v>
-      </c>
-      <c r="G17">
-        <v>88.9</v>
-      </c>
-      <c r="H17">
-        <v>88</v>
-      </c>
-      <c r="I17">
-        <v>0.76</v>
-      </c>
-      <c r="J17">
-        <v>90.1</v>
-      </c>
-      <c r="K17">
-        <v>90.8</v>
-      </c>
-      <c r="L17">
-        <v>89.4</v>
-      </c>
-      <c r="M17">
         <v>0.8</v>
       </c>
-      <c r="N17">
+      <c r="N10">
         <v>93.8</v>
       </c>
-      <c r="O17">
+      <c r="O10">
         <v>92.3</v>
       </c>
-      <c r="P17">
+      <c r="P10">
         <v>94.1</v>
       </c>
-      <c r="Q17">
+      <c r="Q10">
         <v>0.82</v>
       </c>
     </row>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Model File</t>
   </si>
@@ -66,9 +66,6 @@
     <t>217+217</t>
   </si>
   <si>
-    <t>174+174</t>
-  </si>
-  <si>
     <t>SearchType</t>
   </si>
   <si>
@@ -78,16 +75,7 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>PerfSearch_Classification_IT_SMOTE217</t>
-  </si>
-  <si>
     <t>PerfSerach_Classification_TenfoldCV_SMOTE217</t>
-  </si>
-  <si>
-    <t>PerfSearch_CLassification_JackKnife_SMOTE217_Partial</t>
-  </si>
-  <si>
-    <t>PerfSearch_Classification_IT_SMOTE174</t>
   </si>
   <si>
     <t>1500-2800/50</t>
@@ -110,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +113,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,321 +452,229 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="N2" s="1">
-        <v>0.921875</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.84615379999999996</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.76623980000000003</v>
+        <v>0.03</v>
+      </c>
+      <c r="J2">
+        <v>94.700460000000007</v>
+      </c>
+      <c r="K2">
+        <v>97.695849999999993</v>
+      </c>
+      <c r="L2">
+        <v>91.705070000000006</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>21</v>
+    <row r="3" spans="1:17" ht="49.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>2010</v>
+        <v>2800</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0.94930875599999998</v>
+      </c>
+      <c r="G3">
+        <v>0.94470046100000005</v>
+      </c>
+      <c r="H3">
+        <v>0.95391705100000002</v>
+      </c>
+      <c r="I3">
+        <v>0.89865568100000004</v>
       </c>
       <c r="J3">
-        <v>94.700460000000007</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="K3">
-        <v>97.695849999999993</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="L3">
-        <v>91.705070000000006</v>
+        <v>0.95852534562212</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
+        <v>0.89424663014522598</v>
+      </c>
+      <c r="N3">
+        <v>0.9375</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="Q3">
+        <v>0.80122284163523605</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.95161289999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.97235020000000005</v>
-      </c>
-      <c r="H4">
-        <v>0.93087560000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="N5" s="1">
-        <v>0.921875</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.98039220000000005</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.69230769999999997</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.74538599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>2800</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
       <c r="F6">
-        <v>0.94930875599999998</v>
+        <v>94.9</v>
       </c>
       <c r="G6">
-        <v>0.94470046100000005</v>
+        <v>97.2</v>
       </c>
       <c r="H6">
-        <v>0.95391705100000002</v>
+        <v>92.6</v>
       </c>
       <c r="I6">
-        <v>0.89865568100000004</v>
+        <v>0.9</v>
       </c>
       <c r="J6">
-        <v>0.94700460829493105</v>
+        <v>94.9</v>
       </c>
       <c r="K6">
-        <v>0.93548387096774199</v>
+        <v>97.2</v>
       </c>
       <c r="L6">
-        <v>0.95852534562212</v>
+        <v>92.6</v>
       </c>
       <c r="M6">
-        <v>0.89424663014522598</v>
+        <v>0.9</v>
       </c>
       <c r="N6">
-        <v>0.9375</v>
+        <v>94.8</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="P6">
-        <v>0.69230769230769196</v>
+        <v>93.9</v>
       </c>
       <c r="Q6">
-        <v>0.80122284163523605</v>
+        <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="F9">
-        <v>94.9</v>
-      </c>
-      <c r="G9">
-        <v>97.2</v>
-      </c>
-      <c r="H9">
-        <v>92.6</v>
-      </c>
-      <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>94.9</v>
-      </c>
-      <c r="K9">
-        <v>97.2</v>
-      </c>
-      <c r="L9">
-        <v>92.6</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>94.8</v>
-      </c>
-      <c r="O9">
-        <v>94</v>
-      </c>
-      <c r="P9">
-        <v>93.9</v>
-      </c>
-      <c r="Q9">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>88.5</v>
       </c>
-      <c r="G10">
+      <c r="G7">
         <v>88.9</v>
       </c>
-      <c r="H10">
+      <c r="H7">
         <v>88</v>
       </c>
-      <c r="I10">
+      <c r="I7">
         <v>0.76</v>
       </c>
-      <c r="J10">
+      <c r="J7">
         <v>90.1</v>
       </c>
-      <c r="K10">
+      <c r="K7">
         <v>90.8</v>
       </c>
-      <c r="L10">
+      <c r="L7">
         <v>89.4</v>
       </c>
-      <c r="M10">
+      <c r="M7">
         <v>0.8</v>
       </c>
-      <c r="N10">
+      <c r="N7">
         <v>93.8</v>
       </c>
-      <c r="O10">
+      <c r="O7">
         <v>92.3</v>
       </c>
-      <c r="P10">
+      <c r="P7">
         <v>94.1</v>
       </c>
-      <c r="Q10">
+      <c r="Q7">
         <v>0.82</v>
       </c>
     </row>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Model File</t>
   </si>
@@ -69,15 +69,9 @@
     <t>SearchType</t>
   </si>
   <si>
-    <t>2000-2500/10</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>PerfSerach_Classification_TenfoldCV_SMOTE217</t>
-  </si>
-  <si>
     <t>1500-2800/50</t>
   </si>
   <si>
@@ -90,8 +84,19 @@
     <t>na</t>
   </si>
   <si>
-    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217_NormFeaturized + PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized +
-PerfSearch_Classification_JackKnifeCV_WEKA_SMOTE217_NormFeaturized</t>
+    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217</t>
+  </si>
+  <si>
+    <t>Learning Type</t>
+  </si>
+  <si>
+    <t>SVM Class.</t>
+  </si>
+  <si>
+    <t>PerfSearch_Regression_TenfoldCV_WEKA_SMOTE217</t>
+  </si>
+  <si>
+    <t>SVM Regress.</t>
   </si>
 </sst>
 </file>
@@ -438,21 +443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="67.28515625" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="2" max="6" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,221 +465,212 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>19</v>
+    <row r="2" spans="1:18" ht="49.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>2010</v>
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>2800</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.94930879999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.94009220000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.95852530000000002</v>
       </c>
       <c r="J2">
-        <v>94.700460000000007</v>
+        <v>0.89877019999999996</v>
       </c>
       <c r="K2">
-        <v>97.695849999999993</v>
+        <v>0.94700460829493105</v>
       </c>
       <c r="L2">
-        <v>91.705070000000006</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="M2">
-        <v>0.9</v>
+        <v>0.95852534562212</v>
+      </c>
+      <c r="N2">
+        <v>0.89424663014522598</v>
+      </c>
+      <c r="O2">
+        <v>0.9375</v>
+      </c>
+      <c r="P2">
+        <v>0.98039220000000005</v>
+      </c>
+      <c r="Q2">
+        <v>0.76923079999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.79940219999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="49.5" customHeight="1">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>94.9</v>
+      </c>
+      <c r="H5">
+        <v>97.2</v>
+      </c>
+      <c r="I5">
+        <v>92.6</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <v>94.9</v>
+      </c>
+      <c r="L5">
+        <v>97.2</v>
+      </c>
+      <c r="M5">
+        <v>92.6</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>94.8</v>
+      </c>
+      <c r="P5">
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>93.9</v>
+      </c>
+      <c r="R5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>20</v>
-      </c>
-      <c r="D3">
-        <v>2800</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0.94930875599999998</v>
-      </c>
-      <c r="G3">
-        <v>0.94470046100000005</v>
-      </c>
-      <c r="H3">
-        <v>0.95391705100000002</v>
-      </c>
-      <c r="I3">
-        <v>0.89865568100000004</v>
-      </c>
-      <c r="J3">
-        <v>0.94700460829493105</v>
-      </c>
-      <c r="K3">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="L3">
-        <v>0.95852534562212</v>
-      </c>
-      <c r="M3">
-        <v>0.89424663014522598</v>
-      </c>
-      <c r="N3">
-        <v>0.9375</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="Q3">
-        <v>0.80122284163523605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>94.9</v>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>97.2</v>
+        <v>88.5</v>
       </c>
       <c r="H6">
-        <v>92.6</v>
+        <v>88.9</v>
       </c>
       <c r="I6">
-        <v>0.9</v>
+        <v>88</v>
       </c>
       <c r="J6">
-        <v>94.9</v>
+        <v>0.76</v>
       </c>
       <c r="K6">
-        <v>97.2</v>
+        <v>90.1</v>
       </c>
       <c r="L6">
-        <v>92.6</v>
+        <v>90.8</v>
       </c>
       <c r="M6">
-        <v>0.9</v>
+        <v>89.4</v>
       </c>
       <c r="N6">
-        <v>94.8</v>
+        <v>0.8</v>
       </c>
       <c r="O6">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="P6">
-        <v>93.9</v>
+        <v>92.3</v>
       </c>
       <c r="Q6">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>88.5</v>
-      </c>
-      <c r="G7">
-        <v>88.9</v>
-      </c>
-      <c r="H7">
-        <v>88</v>
-      </c>
-      <c r="I7">
-        <v>0.76</v>
-      </c>
-      <c r="J7">
-        <v>90.1</v>
-      </c>
-      <c r="K7">
-        <v>90.8</v>
-      </c>
-      <c r="L7">
-        <v>89.4</v>
-      </c>
-      <c r="M7">
-        <v>0.8</v>
-      </c>
-      <c r="N7">
-        <v>93.8</v>
-      </c>
-      <c r="O7">
-        <v>92.3</v>
-      </c>
-      <c r="P7">
         <v>94.1</v>
       </c>
-      <c r="Q7">
+      <c r="R6">
         <v>0.82</v>
       </c>
     </row>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -84,19 +84,19 @@
     <t>na</t>
   </si>
   <si>
-    <t>PerfSearch_Classification_TenfoldCV_WEKA_SMOTE217</t>
-  </si>
-  <si>
     <t>Learning Type</t>
   </si>
   <si>
     <t>SVM Class.</t>
   </si>
   <si>
-    <t>PerfSearch_Regression_TenfoldCV_WEKA_SMOTE217</t>
-  </si>
-  <si>
     <t>SVM Regress.</t>
+  </si>
+  <si>
+    <t>PerfSearch_Classification_WEKA_SMOTE217</t>
+  </si>
+  <si>
+    <t>PerfSearch_Regression_WEKA_SMOTE217</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -465,7 +465,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="2" spans="1:18" ht="49.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -560,24 +560,24 @@
         <v>0.9375</v>
       </c>
       <c r="P2">
-        <v>0.98039220000000005</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.76923079999999999</v>
+        <v>0.69230769199999997</v>
       </c>
       <c r="R2">
-        <v>0.79940219999999995</v>
+        <v>0.80122284200000005</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Model File</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>PerfSearch_Regression_WEKA_SMOTE217</t>
+  </si>
+  <si>
+    <t>Sn = Accuray of Cis-Golgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sp = Accuracy of Trans-Golgi </t>
   </si>
 </sst>
 </file>
@@ -443,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="67.28515625" customWidth="1"/>
-    <col min="2" max="6" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="2" max="10" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1">
@@ -477,28 +483,28 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -533,37 +539,37 @@
         <v>10</v>
       </c>
       <c r="G2">
+        <v>0.94700460829493105</v>
+      </c>
+      <c r="H2">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="I2">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="J2">
+        <v>0.89424663014522598</v>
+      </c>
+      <c r="K2">
         <v>0.94930879999999995</v>
       </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0.95852530000000002</v>
+      </c>
+      <c r="M2">
         <v>0.94009220000000004</v>
       </c>
-      <c r="I2">
-        <v>0.95852530000000002</v>
-      </c>
-      <c r="J2">
+      <c r="N2">
         <v>0.89877019999999996</v>
-      </c>
-      <c r="K2">
-        <v>0.94700460829493105</v>
-      </c>
-      <c r="L2">
-        <v>0.93548387096774199</v>
-      </c>
-      <c r="M2">
-        <v>0.95852534562212</v>
-      </c>
-      <c r="N2">
-        <v>0.89424663014522598</v>
       </c>
       <c r="O2">
         <v>0.9375</v>
       </c>
       <c r="P2">
+        <v>0.69230769199999997</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.69230769199999997</v>
       </c>
       <c r="R2">
         <v>0.80122284200000005</v>
@@ -582,6 +588,48 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3">
+        <v>2800</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.953917050691244</v>
+      </c>
+      <c r="H3">
+        <v>0.953917050691244</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.953917050691244</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.90783410138248799</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="L3">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.95852534562212</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.91705069124423999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.953125</v>
+      </c>
+      <c r="P3">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.85198411871737501</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
@@ -593,7 +641,7 @@
       <c r="G5">
         <v>94.9</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>97.2</v>
       </c>
       <c r="I5">
@@ -605,7 +653,7 @@
       <c r="K5">
         <v>94.9</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>97.2</v>
       </c>
       <c r="M5">
@@ -617,7 +665,7 @@
       <c r="O5">
         <v>94.8</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>94</v>
       </c>
       <c r="Q5">
@@ -638,28 +686,28 @@
         <v>21</v>
       </c>
       <c r="G6">
+        <v>90.1</v>
+      </c>
+      <c r="H6">
+        <v>90.8</v>
+      </c>
+      <c r="I6">
+        <v>89.4</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="K6">
         <v>88.5</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>88.9</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>88</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>0.76</v>
-      </c>
-      <c r="K6">
-        <v>90.1</v>
-      </c>
-      <c r="L6">
-        <v>90.8</v>
-      </c>
-      <c r="M6">
-        <v>89.4</v>
-      </c>
-      <c r="N6">
-        <v>0.8</v>
       </c>
       <c r="O6">
         <v>93.8</v>
@@ -672,6 +720,16 @@
       </c>
       <c r="R6">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/Data.xlsx
+++ b/Code/R/Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CmpStateOfArt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Model File</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sp = Accuracy of Trans-Golgi </t>
+  </si>
+  <si>
+    <t>PerfSearch_Classification_Imbalanced</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PerfSearch_Regression_Imbalanced</t>
   </si>
 </sst>
 </file>
@@ -449,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R3" sqref="R3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,104 +640,219 @@
         <v>0.85198411871737501</v>
       </c>
     </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2050</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.80263157894736803</v>
+      </c>
+      <c r="H4">
+        <v>0.45977011494252901</v>
+      </c>
+      <c r="I4">
+        <v>0.94009216589861799</v>
+      </c>
+      <c r="J4">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="K4">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="L4">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="M4">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="N4">
+        <v>0.48763828197461001</v>
+      </c>
+      <c r="O4">
+        <v>0.953125</v>
+      </c>
+      <c r="P4">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2250</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.80921052631578905</v>
+      </c>
+      <c r="H5">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="I5">
+        <v>0.94009216589861799</v>
+      </c>
+      <c r="J5">
+        <v>0.49647298030984799</v>
+      </c>
+      <c r="K5">
+        <v>0.81907894736842102</v>
+      </c>
+      <c r="L5">
+        <v>0.56321839080459801</v>
+      </c>
+      <c r="M5">
+        <v>0.92165898617511499</v>
+      </c>
+      <c r="N5">
+        <v>0.53157061896640301</v>
+      </c>
+      <c r="O5">
+        <v>0.921875</v>
+      </c>
+      <c r="P5">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="Q5">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="R5">
+        <v>0.75248232383067404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>94.9</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
         <v>97.2</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>92.6</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>0.9</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>94.9</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L7" s="2">
         <v>97.2</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>92.6</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>0.9</v>
       </c>
-      <c r="O5">
+      <c r="O7">
         <v>94.8</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P7" s="2">
         <v>94</v>
       </c>
-      <c r="Q5">
+      <c r="Q7">
         <v>93.9</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>90.1</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>90.8</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>89.4</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>0.8</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>88.5</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>88.9</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>88</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>0.76</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>93.8</v>
       </c>
-      <c r="P6">
+      <c r="P8">
         <v>92.3</v>
       </c>
-      <c r="Q6">
+      <c r="Q8">
         <v>94.1</v>
       </c>
-      <c r="R6">
+      <c r="R8">
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
